--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,186 +43,159 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>probably</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
-    <t>fell</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>bit</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -235,6 +208,9 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -256,10 +232,10 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>loved</t>
@@ -635,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.8035714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.796875</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,49 +780,49 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.7903225806451613</v>
+      </c>
+      <c r="C5">
+        <v>147</v>
+      </c>
+      <c r="D5">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5">
         <v>0.8148148148148148</v>
       </c>
-      <c r="C5">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="L5">
-        <v>63</v>
-      </c>
-      <c r="M5">
-        <v>63</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,31 +848,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>33</v>
-      </c>
-      <c r="M6">
-        <v>33</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.78125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7746478873239436</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.515625</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.3680327868852459</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L9">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>771</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7580645161290323</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C10">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D10">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.3256814921090387</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L10">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="M10">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>470</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7135922330097088</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C11">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.3112033195020747</v>
+        <v>0.351506456241033</v>
       </c>
       <c r="L11">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="M11">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>332</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6621621621621622</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.2168674698795181</v>
+        <v>0.3049792531120332</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>130</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6571428571428571</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.2083333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6428571428571429</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.1926605504587156</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>264</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6285714285714286</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C15">
         <v>22</v>
@@ -1322,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6041666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.0963855421686747</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>225</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5818181818181818</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.09553023663453111</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1032</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5798319327731093</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,31 +1448,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.050682261208577</v>
+        <v>0.1034180543382997</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="M18">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1461</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5789473684210527</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,7 +1498,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19">
+        <v>0.0474025974025974</v>
+      </c>
+      <c r="L19">
+        <v>73</v>
+      </c>
+      <c r="M19">
+        <v>74</v>
+      </c>
+      <c r="N19">
+        <v>0.99</v>
+      </c>
+      <c r="O19">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1467</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,25 +1530,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5740740740740741</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>31</v>
-      </c>
-      <c r="D20">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,13 +1556,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5111111111111111</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4956521739130435</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C23">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>174</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1634,13 +1634,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4939759036144578</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4566929133858268</v>
+        <v>0.390625</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1686,13 +1686,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4444444444444444</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1712,13 +1712,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.421875</v>
+        <v>0.34375</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1738,13 +1738,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4181818181818182</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1764,13 +1764,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3932584269662922</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1790,13 +1790,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3833333333333334</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1816,13 +1816,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3789473684210526</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1842,13 +1842,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3492063492063492</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1868,13 +1868,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3317535545023697</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>141</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1894,13 +1894,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3267326732673267</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="C34">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1920,13 +1920,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3125</v>
+        <v>0.2047477744807122</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>88</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1946,13 +1946,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.282051282051282</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1972,13 +1972,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2653061224489796</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>72</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1998,13 +1998,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2525773195876289</v>
+        <v>0.19</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2024,13 +2024,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2417582417582418</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>69</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2050,13 +2050,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2203389830508475</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2076,25 +2076,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2183544303797468</v>
+        <v>0.1671469740634006</v>
       </c>
       <c r="C41">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D41">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>247</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2102,13 +2102,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2173913043478261</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2128,13 +2128,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2165605095541401</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2154,13 +2154,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2077151335311573</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C44">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>534</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2180,25 +2180,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2057142857142857</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C45">
         <v>36</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2206,13 +2206,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1993670886075949</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="C46">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>253</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2232,7 +2232,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1846153846153846</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C47">
         <v>24</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2258,13 +2258,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.18</v>
+        <v>0.1310861423220974</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>164</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2284,13 +2284,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1785714285714286</v>
+        <v>0.1205479452054795</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1671469740634006</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2336,25 +2336,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1651982378854626</v>
+        <v>0.08273381294964029</v>
       </c>
       <c r="C51">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>379</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2362,25 +2362,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1542056074766355</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>181</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2388,25 +2388,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1370967741935484</v>
+        <v>0.07366071428571429</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>34</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>214</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2414,25 +2414,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1329787234042553</v>
+        <v>0.05827505827505827</v>
       </c>
       <c r="C54">
         <v>25</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E54">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="F54">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>163</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2440,259 +2440,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1197916666666667</v>
+        <v>0.04556962025316456</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.1041095890410959</v>
-      </c>
-      <c r="C56">
-        <v>38</v>
-      </c>
-      <c r="D56">
-        <v>38</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.09737827715355805</v>
-      </c>
-      <c r="C57">
-        <v>26</v>
-      </c>
-      <c r="D57">
-        <v>26</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="C58">
-        <v>30</v>
-      </c>
-      <c r="D58">
-        <v>30</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.08250825082508251</v>
-      </c>
-      <c r="C59">
-        <v>50</v>
-      </c>
-      <c r="D59">
-        <v>52</v>
-      </c>
-      <c r="E59">
-        <v>0.04</v>
-      </c>
-      <c r="F59">
-        <v>0.96</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.07572383073496659</v>
-      </c>
-      <c r="C60">
-        <v>34</v>
-      </c>
-      <c r="D60">
-        <v>34</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.07278481012658228</v>
-      </c>
-      <c r="C61">
-        <v>23</v>
-      </c>
-      <c r="D61">
-        <v>24</v>
-      </c>
-      <c r="E61">
-        <v>0.04</v>
-      </c>
-      <c r="F61">
-        <v>0.96</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.06046511627906977</v>
-      </c>
-      <c r="C62">
-        <v>26</v>
-      </c>
-      <c r="D62">
-        <v>30</v>
-      </c>
-      <c r="E62">
-        <v>0.13</v>
-      </c>
-      <c r="F62">
-        <v>0.87</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.04301075268817205</v>
-      </c>
-      <c r="C63">
-        <v>28</v>
-      </c>
-      <c r="D63">
-        <v>32</v>
-      </c>
-      <c r="E63">
-        <v>0.12</v>
-      </c>
-      <c r="F63">
-        <v>0.88</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.03807106598984772</v>
-      </c>
-      <c r="C64">
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <v>36</v>
-      </c>
-      <c r="E64">
-        <v>0.17</v>
-      </c>
-      <c r="F64">
-        <v>0.83</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
